--- a/dados.xlsx
+++ b/dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3705" yWindow="3285" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -476,353 +476,543 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Alan Shearer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>260</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>213</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>208</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andrew Cole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>187</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sergio Agüero</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>184</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>177</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>H</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Robbie Fowler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>E</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jermain Defoe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>162</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Michael Owen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alan Shearer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>260</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Harry Kane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>213</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wayne Rooney</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
       <c r="H14" s="1" t="n"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>E</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Andrew Cole</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>187</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sergio Agüero</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>184</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>177</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Robbie Fowler</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>163</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>E</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jermain Defoe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>162</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="AS45" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="AU47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="AV48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="AW49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="AX50" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="AY51" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael Owen</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
     </row>
